--- a/data/trans_orig/P15DS1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P15DS1-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A04C070F-1076-4706-9125-E33E546D7071}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{21D83C9D-5919-4DCB-A4A3-0FFF2DEBD809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{613A365F-0DF1-4B16-88A5-C281FF20AA7A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{620D703F-EF9D-4C94-AF54-4853902FE8F0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="889">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="880">
   <si>
     <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2007 (Tasa respuesta: 3,21%)</t>
   </si>
@@ -77,10 +77,10 @@
     <t>18,31%</t>
   </si>
   <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
   </si>
   <si>
     <t>17,64%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>53,23%</t>
+    <t>46,7%</t>
   </si>
   <si>
     <t>18,15%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>Consultar a un médico o enfermera (fuera de un hospital o cl</t>
@@ -107,2605 +107,2578 @@
     <t>8,39%</t>
   </si>
   <si>
-    <t>2,64%</t>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>65,88%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>Acudir a un servicio de urgencias de un hospital o clínica</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>44,48%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>Ser ingresado en un hospital o clínica</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>28,28%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>54,11%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>43,88%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>29,47%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>10,01%</t>
+  </si>
+  <si>
+    <t>41,87%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>45,7%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>32,36%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
+  </si>
+  <si>
+    <t>34,88%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>65,12%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>44,71%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>63,32%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>29,67%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>45,33%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>56,31%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>40,53%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>48,19%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>28,79%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>64,53%</t>
+  </si>
+  <si>
+    <t>44,9%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>51,01%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>34,17%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
+  </si>
+  <si>
+    <t>55,67%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>55,1%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,22%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2012 (Tasa respuesta: 7,85%)</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>47,87%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>51,73%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>49,92%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>45,23%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>63,14%</t>
+  </si>
+  <si>
+    <t>73,32%</t>
+  </si>
+  <si>
+    <t>55,45%</t>
+  </si>
+  <si>
+    <t>38,53%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>37,52%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>36,4%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>39,59%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>57,11%</t>
+  </si>
+  <si>
+    <t>38,45%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>43,78%</t>
+  </si>
+  <si>
+    <t>66,04%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>23,73%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>65,32%</t>
+  </si>
+  <si>
+    <t>60,65%</t>
+  </si>
+  <si>
+    <t>41,15%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>45,81%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>65,84%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>52,02%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>40,6%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>13,13%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>48,99%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>30,57%</t>
+  </si>
+  <si>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>55,26%</t>
+  </si>
+  <si>
+    <t>48,7%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>52,66%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2015 (Tasa respuesta: 5,54%)</t>
+  </si>
+  <si>
+    <t>23,7%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>26,16%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>69,44%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>73,62%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>65,22%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>81,15%</t>
+  </si>
+  <si>
+    <t>64,03%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>55,5%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>22,34%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>32,38%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>27,14%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>74,16%</t>
+  </si>
+  <si>
+    <t>53,92%</t>
+  </si>
+  <si>
+    <t>88,41%</t>
+  </si>
+  <si>
+    <t>53,4%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>32,83%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>50,0%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>50,1%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>33,97%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>59,93%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>71,44%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>46,55%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>60,25%</t>
+  </si>
+  <si>
+    <t>53,53%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>57,79%</t>
+  </si>
+  <si>
+    <t>68,4%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2023 (Tasa respuesta: 6,53%)</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>47,42%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>36,33%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>50,72%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>36,34%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>52,52%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>60,21%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>62,33%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>76,3%</t>
+  </si>
+  <si>
+    <t>70,08%</t>
+  </si>
+  <si>
+    <t>58,42%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>56,61%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>26,51%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>Acudir a un servicio de urgencias de un hospital o clínica</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>66,47%</t>
-  </si>
-  <si>
-    <t>Ser ingresado en un hospital o clínica</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>49,89%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>44,43%</t>
-  </si>
-  <si>
-    <t>28,28%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
+    <t>50,58%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>63,16%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>23,22%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>32,09%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
   </si>
   <si>
     <t>16,29%</t>
   </si>
   <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>55,57%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>70,34%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>28,36%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>55,45%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>22,24%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>57,37%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>27,83%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>39,65%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>32,36%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>34,88%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>72,33%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>54,66%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>34,61%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>62,49%</t>
-  </si>
-  <si>
-    <t>65,12%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>44,71%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>63,61%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>39,94%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>44,61%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>30,21%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>40,17%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>48,19%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>28,79%</t>
-  </si>
-  <si>
-    <t>73,3%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>64,53%</t>
-  </si>
-  <si>
-    <t>44,9%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>51,01%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>25,71%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>37,08%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>47,78%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2012 (Tasa respuesta: 7,85%)</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>54,23%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>17,9%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>21,75%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
   </si>
   <si>
     <t>13,84%</t>
   </si>
   <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>34,9%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>46,84%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>63,14%</t>
-  </si>
-  <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>51,04%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>47,15%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>67,33%</t>
-  </si>
-  <si>
-    <t>57,11%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>43,88%</t>
-  </si>
-  <si>
-    <t>66,43%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>7,09%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>43,19%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>60,65%</t>
-  </si>
-  <si>
-    <t>40,74%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>56,46%</t>
-  </si>
-  <si>
-    <t>28,99%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>45,7%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>65,84%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>79,26%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>79,15%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>21,2%</t>
-  </si>
-  <si>
-    <t>51,82%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>46,96%</t>
-  </si>
-  <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>48,99%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>21,07%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>34,6%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>55,26%</t>
-  </si>
-  <si>
-    <t>48,52%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>56,97%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2015 (Tasa respuesta: 5,54%)</t>
-  </si>
-  <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>11,63%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>69,44%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>82,4%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>73,62%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>84,98%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
-  </si>
-  <si>
-    <t>52,25%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>64,03%</t>
-  </si>
-  <si>
-    <t>52,98%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>55,5%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>76,01%</t>
-  </si>
-  <si>
-    <t>60,82%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>74,81%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>31,17%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>54,16%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>36,57%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>60,84%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>48,01%</t>
-  </si>
-  <si>
-    <t>83,8%</t>
-  </si>
-  <si>
-    <t>66,13%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>15,66%</t>
-  </si>
-  <si>
-    <t>46,73%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>59,93%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>71,72%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>45,55%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>18,27%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>60,25%</t>
-  </si>
-  <si>
-    <t>53,01%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>57,41%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>57,38%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>Población según la consecuencia de dicho accidente / respuesta 1 en 2023 (Tasa respuesta: 6,53%)</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>50,72%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>40,16%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>18,64%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>52,52%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>46,12%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>76,27%</t>
-  </si>
-  <si>
-    <t>60,45%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>62,33%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>70,08%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>80,19%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>18,45%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>53,92%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>56,61%</t>
-  </si>
-  <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>50,58%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>63,16%</t>
-  </si>
-  <si>
-    <t>50,0%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>23,22%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>40,38%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>31,91%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
   </si>
   <si>
     <t>13,85%</t>
   </si>
   <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>46,98%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
   </si>
   <si>
     <t>58,72%</t>
   </si>
   <si>
-    <t>51,03%</t>
-  </si>
-  <si>
-    <t>65,7%</t>
+    <t>51,27%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
   </si>
   <si>
     <t>50,65%</t>
   </si>
   <si>
-    <t>44,58%</t>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
   </si>
   <si>
     <t>54,43%</t>
   </si>
   <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
   </si>
   <si>
     <t>16,53%</t>
   </si>
   <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
   </si>
   <si>
     <t>11,42%</t>
   </si>
   <si>
-    <t>16,37%</t>
+    <t>16,48%</t>
   </si>
   <si>
     <t>13,81%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
   </si>
 </sst>
 </file>
@@ -3117,7 +3090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B137194E-50E7-4D3F-A57B-25F918954D70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{230DE223-16CC-4D42-894A-C79B9EDEDE7B}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3809,10 +3782,10 @@
         <v>91</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7">
         <v>2</v>
@@ -3821,13 +3794,13 @@
         <v>2611</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M15" s="7">
         <v>6</v>
@@ -3836,13 +3809,13 @@
         <v>7098</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3857,13 +3830,13 @@
         <v>5059</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3872,13 +3845,13 @@
         <v>7879</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3887,13 +3860,13 @@
         <v>12938</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3908,13 +3881,13 @@
         <v>986</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -3923,13 +3896,13 @@
         <v>1021</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -3938,13 +3911,13 @@
         <v>2007</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>110</v>
+        <v>12</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,7 +3973,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4012,13 +3985,13 @@
         <v>6322</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>3</v>
@@ -4027,13 +4000,13 @@
         <v>3371</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -4042,13 +4015,13 @@
         <v>9693</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4063,13 +4036,13 @@
         <v>3228</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4084,7 +4057,7 @@
         <v>44</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -4093,13 +4066,13 @@
         <v>3228</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4114,13 +4087,13 @@
         <v>6762</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -4186,7 +4159,7 @@
         <v>44</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M22" s="7">
         <v>3</v>
@@ -4195,7 +4168,7 @@
         <v>3225</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>141</v>
@@ -4526,13 +4499,13 @@
         <v>1056</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -4541,13 +4514,13 @@
         <v>3664</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M29" s="7">
         <v>5</v>
@@ -4559,10 +4532,10 @@
         <v>60</v>
       </c>
       <c r="P29" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4577,13 +4550,13 @@
         <v>949</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H30" s="7">
         <v>4</v>
@@ -4592,13 +4565,13 @@
         <v>4521</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M30" s="7">
         <v>5</v>
@@ -4607,13 +4580,13 @@
         <v>5471</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4628,13 +4601,13 @@
         <v>7758</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>191</v>
       </c>
       <c r="H31" s="7">
         <v>19</v>
@@ -4643,13 +4616,13 @@
         <v>20466</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M31" s="7">
         <v>27</v>
@@ -4658,13 +4631,13 @@
         <v>28224</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4679,13 +4652,13 @@
         <v>821</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H32" s="7">
         <v>3</v>
@@ -4694,13 +4667,13 @@
         <v>3063</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M32" s="7">
         <v>4</v>
@@ -4709,13 +4682,13 @@
         <v>3884</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4783,13 +4756,13 @@
         <v>32687</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H34" s="7">
         <v>16</v>
@@ -4798,13 +4771,13 @@
         <v>15712</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M34" s="7">
         <v>48</v>
@@ -4813,13 +4786,13 @@
         <v>48399</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>214</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4834,13 +4807,13 @@
         <v>16370</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H35" s="7">
         <v>11</v>
@@ -4849,13 +4822,13 @@
         <v>12156</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="M35" s="7">
         <v>27</v>
@@ -4864,13 +4837,13 @@
         <v>28526</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4858,13 @@
         <v>56905</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>71</v>
+        <v>223</v>
       </c>
       <c r="H36" s="7">
         <v>58</v>
@@ -4900,13 +4873,13 @@
         <v>60878</v>
       </c>
       <c r="J36" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="K36" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="L36" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M36" s="7">
         <v>114</v>
@@ -4915,13 +4888,13 @@
         <v>117783</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4909,13 @@
         <v>17115</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>234</v>
       </c>
       <c r="H37" s="7">
         <v>5</v>
@@ -4951,13 +4924,13 @@
         <v>5060</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M37" s="7">
         <v>20</v>
@@ -4966,13 +4939,13 @@
         <v>22175</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P37" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,7 +5001,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -5050,7 +5023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BF464AA-185F-4BBB-8257-5EFC8E8DAA67}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADB095ED-9DF8-4C5E-90E5-59274F410229}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5067,7 +5040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5174,13 +5147,13 @@
         <v>13158</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -5189,13 +5162,13 @@
         <v>8915</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>246</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -5204,13 +5177,13 @@
         <v>22073</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5225,13 +5198,13 @@
         <v>3736</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5240,13 +5213,13 @@
         <v>2956</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="M5" s="7">
         <v>7</v>
@@ -5255,13 +5228,13 @@
         <v>6692</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5276,13 +5249,13 @@
         <v>38235</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H6" s="7">
         <v>17</v>
@@ -5291,13 +5264,13 @@
         <v>16627</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="M6" s="7">
         <v>55</v>
@@ -5306,13 +5279,13 @@
         <v>54862</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,13 +5300,13 @@
         <v>4501</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5342,13 +5315,13 @@
         <v>2163</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -5357,13 +5330,13 @@
         <v>6664</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5431,13 +5404,13 @@
         <v>19751</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H9" s="7">
         <v>11</v>
@@ -5446,13 +5419,13 @@
         <v>10914</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="M9" s="7">
         <v>30</v>
@@ -5461,13 +5434,13 @@
         <v>30665</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5482,13 +5455,13 @@
         <v>6544</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -5497,13 +5470,13 @@
         <v>4039</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M10" s="7">
         <v>10</v>
@@ -5512,13 +5485,13 @@
         <v>10583</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5533,13 +5506,13 @@
         <v>51973</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>297</v>
+        <v>53</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="H11" s="7">
         <v>18</v>
@@ -5548,13 +5521,13 @@
         <v>21087</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>85</v>
+        <v>295</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="M11" s="7">
         <v>69</v>
@@ -5563,13 +5536,13 @@
         <v>73060</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5584,13 +5557,13 @@
         <v>4053</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -5599,13 +5572,13 @@
         <v>1989</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5614,13 +5587,13 @@
         <v>6042</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5688,13 +5661,13 @@
         <v>13144</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>310</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -5703,13 +5676,13 @@
         <v>7690</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="M14" s="7">
         <v>20</v>
@@ -5718,13 +5691,13 @@
         <v>20835</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5739,13 +5712,13 @@
         <v>6319</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -5754,13 +5727,13 @@
         <v>2831</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -5769,13 +5742,13 @@
         <v>9150</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -5790,13 +5763,13 @@
         <v>28556</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="H16" s="7">
         <v>17</v>
@@ -5805,13 +5778,13 @@
         <v>16783</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="M16" s="7">
         <v>42</v>
@@ -5820,13 +5793,13 @@
         <v>45339</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5841,10 +5814,10 @@
         <v>5388</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>336</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>337</v>
@@ -5933,7 +5906,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6131,10 +6104,10 @@
         <v>374</v>
       </c>
       <c r="P22" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,10 +6175,10 @@
         <v>3037</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>378</v>
@@ -6289,7 +6262,7 @@
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>99</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6304,13 +6277,13 @@
         <v>8752</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H26" s="7">
         <v>26</v>
@@ -6319,13 +6292,13 @@
         <v>27491</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M26" s="7">
         <v>34</v>
@@ -6334,13 +6307,13 @@
         <v>36242</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6355,13 +6328,13 @@
         <v>1132</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H27" s="7">
         <v>0</v>
@@ -6376,7 +6349,7 @@
         <v>44</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M27" s="7">
         <v>1</v>
@@ -6385,13 +6358,13 @@
         <v>1132</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="P27" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>210</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6432,13 @@
         <v>14218</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>404</v>
+        <v>155</v>
       </c>
       <c r="H29" s="7">
         <v>22</v>
@@ -6474,13 +6447,13 @@
         <v>23203</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M29" s="7">
         <v>36</v>
@@ -6489,13 +6462,13 @@
         <v>37421</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6510,13 +6483,13 @@
         <v>1010</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H30" s="7">
         <v>7</v>
@@ -6525,13 +6498,13 @@
         <v>6971</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M30" s="7">
         <v>8</v>
@@ -6540,7 +6513,7 @@
         <v>7981</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>416</v>
+        <v>92</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>417</v>
@@ -6615,10 +6588,10 @@
         <v>428</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="H32" s="7">
         <v>11</v>
@@ -6627,13 +6600,13 @@
         <v>12007</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>428</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -6642,13 +6615,13 @@
         <v>15228</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>433</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>434</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6689,13 @@
         <v>71311</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>436</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="H34" s="7">
         <v>67</v>
@@ -6731,13 +6704,13 @@
         <v>71646</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>214</v>
+        <v>438</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>439</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>440</v>
+        <v>391</v>
       </c>
       <c r="M34" s="7">
         <v>138</v>
@@ -6746,13 +6719,13 @@
         <v>142957</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P34" s="7" t="s">
+      <c r="Q34" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6767,13 +6740,13 @@
         <v>23180</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="F35" s="7" t="s">
-        <v>445</v>
-      </c>
       <c r="G35" s="7" t="s">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="H35" s="7">
         <v>21</v>
@@ -6782,13 +6755,13 @@
         <v>21840</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>448</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>449</v>
       </c>
       <c r="M35" s="7">
         <v>43</v>
@@ -6797,13 +6770,13 @@
         <v>45020</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>452</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -6818,13 +6791,13 @@
         <v>166030</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H36" s="7">
         <v>131</v>
@@ -6833,13 +6806,13 @@
         <v>140550</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="M36" s="7">
         <v>289</v>
@@ -6848,13 +6821,13 @@
         <v>306580</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,10 +6845,10 @@
         <v>428</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -6884,13 +6857,13 @@
         <v>20308</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="M37" s="7">
         <v>41</v>
@@ -6899,13 +6872,13 @@
         <v>43556</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,7 +6934,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -6983,7 +6956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCE35FAA-53EF-495B-B363-8C9BC23C6F66}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B74226-6EB8-4320-9C8E-F0403F7D47C6}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7000,7 +6973,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7107,13 +7080,13 @@
         <v>10421</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -7122,13 +7095,13 @@
         <v>959</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="M4" s="7">
         <v>10</v>
@@ -7137,13 +7110,13 @@
         <v>11380</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7131,13 @@
         <v>1057</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -7173,13 +7146,13 @@
         <v>939</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -7188,13 +7161,13 @@
         <v>1996</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7182,13 @@
         <v>30538</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -7224,13 +7197,13 @@
         <v>15284</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M6" s="7">
         <v>45</v>
@@ -7239,13 +7212,13 @@
         <v>45822</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7233,13 @@
         <v>1964</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -7275,13 +7248,13 @@
         <v>1083</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -7290,13 +7263,13 @@
         <v>3047</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -7367,10 +7340,10 @@
         <v>45</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H9" s="7">
         <v>4</v>
@@ -7379,13 +7352,13 @@
         <v>4738</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>304</v>
+        <v>500</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="M9" s="7">
         <v>12</v>
@@ -7394,13 +7367,13 @@
         <v>12718</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>505</v>
+        <v>321</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7388,13 @@
         <v>5619</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>507</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -7430,13 +7403,13 @@
         <v>1907</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="M10" s="7">
         <v>8</v>
@@ -7445,13 +7418,13 @@
         <v>7527</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>309</v>
+        <v>508</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7439,13 @@
         <v>33167</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>512</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>513</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>514</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -7481,13 +7454,13 @@
         <v>13921</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>515</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>516</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>517</v>
       </c>
       <c r="M11" s="7">
         <v>48</v>
@@ -7496,13 +7469,13 @@
         <v>47089</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>518</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>519</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -7517,13 +7490,13 @@
         <v>4090</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>521</v>
+        <v>231</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -7532,13 +7505,13 @@
         <v>2112</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -7547,13 +7520,13 @@
         <v>6203</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7621,13 +7594,13 @@
         <v>2660</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -7636,13 +7609,13 @@
         <v>3775</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="M14" s="7">
         <v>6</v>
@@ -7651,13 +7624,13 @@
         <v>6435</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>534</v>
+        <v>97</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7672,13 +7645,13 @@
         <v>5735</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>380</v>
+        <v>533</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>538</v>
+        <v>91</v>
       </c>
       <c r="H15" s="7">
         <v>3</v>
@@ -7687,13 +7660,13 @@
         <v>2838</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>541</v>
+        <v>278</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -7702,13 +7675,13 @@
         <v>8573</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -7723,13 +7696,13 @@
         <v>23141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="H16" s="7">
         <v>13</v>
@@ -7738,13 +7711,13 @@
         <v>13901</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="M16" s="7">
         <v>35</v>
@@ -7753,13 +7726,13 @@
         <v>37043</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7774,13 +7747,13 @@
         <v>4322</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>553</v>
+        <v>460</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -7789,13 +7762,13 @@
         <v>4533</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -7804,13 +7777,13 @@
         <v>8855</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7866,7 +7839,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -7878,13 +7851,13 @@
         <v>4116</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -7893,13 +7866,13 @@
         <v>1089</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -7908,13 +7881,13 @@
         <v>5205</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -7929,13 +7902,13 @@
         <v>4264</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="H20" s="7">
         <v>2</v>
@@ -7944,13 +7917,13 @@
         <v>2132</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="M20" s="7">
         <v>6</v>
@@ -7959,13 +7932,13 @@
         <v>6396</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7980,13 +7953,13 @@
         <v>17423</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="H21" s="7">
         <v>16</v>
@@ -7995,13 +7968,13 @@
         <v>18157</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>268</v>
+        <v>576</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="M21" s="7">
         <v>31</v>
@@ -8010,13 +7983,13 @@
         <v>35580</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8031,13 +8004,13 @@
         <v>3030</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>15</v>
+        <v>581</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="H22" s="7">
         <v>3</v>
@@ -8046,13 +8019,13 @@
         <v>3107</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>588</v>
+        <v>15</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="M22" s="7">
         <v>6</v>
@@ -8061,13 +8034,13 @@
         <v>6137</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8135,13 +8108,13 @@
         <v>2251</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>594</v>
+        <v>228</v>
       </c>
       <c r="H24" s="7">
         <v>5</v>
@@ -8150,13 +8123,13 @@
         <v>5405</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="M24" s="7">
         <v>7</v>
@@ -8165,13 +8138,13 @@
         <v>7656</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>434</v>
+        <v>593</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8186,13 +8159,13 @@
         <v>1036</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -8207,7 +8180,7 @@
         <v>44</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="M25" s="7">
         <v>1</v>
@@ -8216,13 +8189,13 @@
         <v>1036</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8237,13 +8210,13 @@
         <v>8511</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -8252,13 +8225,13 @@
         <v>20814</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="M26" s="7">
         <v>25</v>
@@ -8267,13 +8240,13 @@
         <v>29324</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>612</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8288,13 +8261,13 @@
         <v>2191</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F27" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="H27" s="7">
         <v>4</v>
@@ -8303,13 +8276,13 @@
         <v>4139</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="M27" s="7">
         <v>6</v>
@@ -8318,13 +8291,13 @@
         <v>6330</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -8392,13 +8365,13 @@
         <v>4960</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -8407,13 +8380,13 @@
         <v>11138</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>625</v>
+        <v>414</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>626</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
         <v>16</v>
@@ -8422,13 +8395,13 @@
         <v>16097</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>621</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8443,13 +8416,13 @@
         <v>6899</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="H30" s="7">
         <v>10</v>
@@ -8458,13 +8431,13 @@
         <v>10637</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="M30" s="7">
         <v>18</v>
@@ -8473,13 +8446,13 @@
         <v>17536</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8494,13 +8467,13 @@
         <v>7491</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>639</v>
+        <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="H31" s="7">
         <v>33</v>
@@ -8509,13 +8482,13 @@
         <v>41612</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="M31" s="7">
         <v>41</v>
@@ -8524,13 +8497,13 @@
         <v>49103</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -8545,13 +8518,13 @@
         <v>6768</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -8560,13 +8533,13 @@
         <v>6046</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>650</v>
+        <v>128</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
       <c r="M32" s="7">
         <v>12</v>
@@ -8575,13 +8548,13 @@
         <v>12813</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>653</v>
+        <v>213</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -8649,13 +8622,13 @@
         <v>32388</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>656</v>
+        <v>308</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>657</v>
+        <v>646</v>
       </c>
       <c r="H34" s="7">
         <v>25</v>
@@ -8664,13 +8637,13 @@
         <v>27103</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>350</v>
+        <v>647</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="M34" s="7">
         <v>56</v>
@@ -8679,13 +8652,13 @@
         <v>59491</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>661</v>
+        <v>235</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>662</v>
+        <v>651</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8700,13 +8673,13 @@
         <v>24610</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>526</v>
+        <v>21</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="H35" s="7">
         <v>18</v>
@@ -8715,13 +8688,13 @@
         <v>18453</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>557</v>
+        <v>655</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="M35" s="7">
         <v>44</v>
@@ -8730,13 +8703,13 @@
         <v>43063</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>279</v>
+        <v>553</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -8751,13 +8724,13 @@
         <v>120271</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="H36" s="7">
         <v>110</v>
@@ -8766,13 +8739,13 @@
         <v>123689</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="M36" s="7">
         <v>225</v>
@@ -8781,13 +8754,13 @@
         <v>243960</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8802,13 +8775,13 @@
         <v>22365</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>452</v>
+        <v>668</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>42</v>
+        <v>669</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>678</v>
+        <v>305</v>
       </c>
       <c r="H37" s="7">
         <v>18</v>
@@ -8817,13 +8790,13 @@
         <v>21020</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="M37" s="7">
         <v>39</v>
@@ -8832,13 +8805,13 @@
         <v>43385</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>683</v>
+        <v>131</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8894,7 +8867,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -8916,7 +8889,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1FBDD5-6EA6-488C-8A3C-A1097A0C67D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A11DACEC-503D-40F0-B7C1-DEDDCCF24E67}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8933,7 +8906,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -9046,7 +9019,7 @@
         <v>44</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -9055,13 +9028,13 @@
         <v>4303</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -9070,13 +9043,13 @@
         <v>4303</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -9091,13 +9064,13 @@
         <v>2452</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="H5" s="7">
         <v>2</v>
@@ -9106,13 +9079,13 @@
         <v>3377</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>691</v>
+        <v>131</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="M5" s="7">
         <v>3</v>
@@ -9121,13 +9094,13 @@
         <v>5829</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>647</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>693</v>
+        <v>682</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>694</v>
+        <v>683</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -9142,13 +9115,13 @@
         <v>15558</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>695</v>
+        <v>684</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>696</v>
+        <v>685</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>697</v>
+        <v>162</v>
       </c>
       <c r="H6" s="7">
         <v>6</v>
@@ -9157,13 +9130,13 @@
         <v>11629</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="M6" s="7">
         <v>13</v>
@@ -9172,13 +9145,13 @@
         <v>27187</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -9199,7 +9172,7 @@
         <v>44</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -9208,13 +9181,13 @@
         <v>3618</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>704</v>
+        <v>692</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>669</v>
+        <v>693</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -9223,13 +9196,13 @@
         <v>3618</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -9297,13 +9270,13 @@
         <v>7012</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>708</v>
+        <v>697</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="H9" s="7">
         <v>1</v>
@@ -9312,13 +9285,13 @@
         <v>1702</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>710</v>
+        <v>699</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>711</v>
+        <v>700</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -9327,13 +9300,13 @@
         <v>8714</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>712</v>
+        <v>701</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>713</v>
+        <v>702</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>714</v>
+        <v>703</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -9348,13 +9321,13 @@
         <v>1844</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>716</v>
+        <v>705</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -9363,13 +9336,13 @@
         <v>6945</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="M10" s="7">
         <v>7</v>
@@ -9378,13 +9351,13 @@
         <v>8789</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>81</v>
+        <v>709</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -9399,13 +9372,13 @@
         <v>15265</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>157</v>
+        <v>713</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>723</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>8</v>
@@ -9414,13 +9387,13 @@
         <v>7725</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>430</v>
+        <v>715</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="M11" s="7">
         <v>20</v>
@@ -9429,13 +9402,13 @@
         <v>22990</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>728</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -9450,13 +9423,13 @@
         <v>3281</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>480</v>
+        <v>719</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -9471,7 +9444,7 @@
         <v>44</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="M12" s="7">
         <v>2</v>
@@ -9480,13 +9453,13 @@
         <v>3281</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9554,13 +9527,13 @@
         <v>2338</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="H14" s="7">
         <v>5</v>
@@ -9569,13 +9542,13 @@
         <v>3174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>725</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>734</v>
+        <v>405</v>
       </c>
       <c r="M14" s="7">
         <v>7</v>
@@ -9584,13 +9557,13 @@
         <v>5512</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9611,7 +9584,7 @@
         <v>44</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="H15" s="7">
         <v>8</v>
@@ -9620,13 +9593,13 @@
         <v>5740</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>739</v>
+        <v>707</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>741</v>
+        <v>695</v>
       </c>
       <c r="M15" s="7">
         <v>8</v>
@@ -9635,13 +9608,13 @@
         <v>5740</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>742</v>
+        <v>731</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>743</v>
+        <v>732</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>213</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -9656,13 +9629,13 @@
         <v>28455</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="H16" s="7">
         <v>27</v>
@@ -9671,13 +9644,13 @@
         <v>18617</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>34</v>
+        <v>738</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -9686,13 +9659,13 @@
         <v>47072</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9707,13 +9680,13 @@
         <v>6513</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -9722,13 +9695,13 @@
         <v>2336</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -9737,13 +9710,13 @@
         <v>8849</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>622</v>
+        <v>750</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9799,7 +9772,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -9811,13 +9784,13 @@
         <v>9046</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -9826,13 +9799,13 @@
         <v>8386</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
       <c r="M19" s="7">
         <v>22</v>
@@ -9841,13 +9814,13 @@
         <v>17431</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>767</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -9862,13 +9835,13 @@
         <v>4593</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="H20" s="7">
         <v>6</v>
@@ -9877,13 +9850,13 @@
         <v>4155</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>436</v>
+        <v>765</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -9895,10 +9868,10 @@
         <v>156</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>304</v>
+        <v>766</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>774</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9913,13 +9886,13 @@
         <v>30757</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>775</v>
+        <v>768</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>776</v>
+        <v>769</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>777</v>
+        <v>770</v>
       </c>
       <c r="H21" s="7">
         <v>27</v>
@@ -9928,13 +9901,13 @@
         <v>17071</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>778</v>
+        <v>576</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
       <c r="M21" s="7">
         <v>59</v>
@@ -9943,13 +9916,13 @@
         <v>47829</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>503</v>
+        <v>774</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>782</v>
+        <v>775</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9964,13 +9937,13 @@
         <v>8433</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>783</v>
+        <v>776</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>784</v>
+        <v>777</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -9979,13 +9952,13 @@
         <v>2046</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
       <c r="M22" s="7">
         <v>12</v>
@@ -9994,13 +9967,13 @@
         <v>10480</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -10068,13 +10041,13 @@
         <v>4314</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="H24" s="7">
         <v>6</v>
@@ -10083,13 +10056,13 @@
         <v>3940</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>795</v>
+        <v>139</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>796</v>
+        <v>789</v>
       </c>
       <c r="M24" s="7">
         <v>11</v>
@@ -10098,13 +10071,13 @@
         <v>8253</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>480</v>
+        <v>719</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>798</v>
+        <v>758</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -10119,13 +10092,13 @@
         <v>3742</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -10134,13 +10107,13 @@
         <v>4803</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -10149,13 +10122,13 @@
         <v>8544</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -10170,13 +10143,13 @@
         <v>15552</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>671</v>
+        <v>802</v>
       </c>
       <c r="H26" s="7">
         <v>40</v>
@@ -10185,13 +10158,13 @@
         <v>24124</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="M26" s="7">
         <v>56</v>
@@ -10200,13 +10173,13 @@
         <v>39676</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>389</v>
+        <v>808</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -10221,13 +10194,13 @@
         <v>7138</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
       <c r="H27" s="7">
         <v>9</v>
@@ -10236,13 +10209,13 @@
         <v>5330</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
       <c r="M27" s="7">
         <v>17</v>
@@ -10251,13 +10224,13 @@
         <v>12468</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -10325,13 +10298,13 @@
         <v>10679</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>825</v>
+        <v>592</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>826</v>
+        <v>819</v>
       </c>
       <c r="H29" s="7">
         <v>46</v>
@@ -10340,13 +10313,13 @@
         <v>23388</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>827</v>
+        <v>820</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>828</v>
+        <v>821</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>829</v>
+        <v>822</v>
       </c>
       <c r="M29" s="7">
         <v>66</v>
@@ -10355,13 +10328,13 @@
         <v>34067</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>482</v>
+        <v>823</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>830</v>
+        <v>758</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>831</v>
+        <v>824</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -10376,13 +10349,13 @@
         <v>4716</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>832</v>
+        <v>825</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>833</v>
+        <v>551</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
       <c r="H30" s="7">
         <v>35</v>
@@ -10391,13 +10364,13 @@
         <v>18189</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="M30" s="7">
         <v>44</v>
@@ -10406,13 +10379,13 @@
         <v>22905</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>840</v>
+        <v>405</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -10427,13 +10400,13 @@
         <v>14763</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>626</v>
+        <v>582</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="H31" s="7">
         <v>73</v>
@@ -10442,13 +10415,13 @@
         <v>38481</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="M31" s="7">
         <v>96</v>
@@ -10457,13 +10430,13 @@
         <v>53244</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>846</v>
+        <v>514</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -10478,13 +10451,13 @@
         <v>8509</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>850</v>
+        <v>477</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>851</v>
+        <v>840</v>
       </c>
       <c r="H32" s="7">
         <v>24</v>
@@ -10493,13 +10466,13 @@
         <v>13200</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>603</v>
+        <v>841</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -10508,13 +10481,13 @@
         <v>21709</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>855</v>
+        <v>845</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>856</v>
+        <v>846</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10582,13 +10555,13 @@
         <v>33389</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>66</v>
+        <v>847</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>857</v>
+        <v>469</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>858</v>
+        <v>848</v>
       </c>
       <c r="H34" s="7">
         <v>73</v>
@@ -10597,13 +10570,13 @@
         <v>44892</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>859</v>
+        <v>651</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>860</v>
+        <v>849</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>861</v>
+        <v>850</v>
       </c>
       <c r="M34" s="7">
         <v>113</v>
@@ -10612,13 +10585,13 @@
         <v>78281</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>862</v>
+        <v>851</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>863</v>
+        <v>852</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>864</v>
+        <v>853</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10633,13 +10606,13 @@
         <v>17347</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>865</v>
+        <v>854</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="H35" s="7">
         <v>64</v>
@@ -10648,13 +10621,13 @@
         <v>43208</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>870</v>
+        <v>859</v>
       </c>
       <c r="M35" s="7">
         <v>84</v>
@@ -10663,13 +10636,13 @@
         <v>60556</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>836</v>
+        <v>860</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>871</v>
+        <v>861</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -10684,13 +10657,13 @@
         <v>120351</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>873</v>
+        <v>863</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>874</v>
+        <v>864</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>875</v>
+        <v>865</v>
       </c>
       <c r="H36" s="7">
         <v>181</v>
@@ -10699,13 +10672,13 @@
         <v>117647</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>876</v>
+        <v>866</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>877</v>
+        <v>867</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>378</v>
+        <v>868</v>
       </c>
       <c r="M36" s="7">
         <v>297</v>
@@ -10714,13 +10687,13 @@
         <v>237998</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10735,13 +10708,13 @@
         <v>33874</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="H37" s="7">
         <v>41</v>
@@ -10750,13 +10723,13 @@
         <v>26529</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>467</v>
+        <v>658</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="M37" s="7">
         <v>77</v>
@@ -10765,13 +10738,13 @@
         <v>60404</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10827,7 +10800,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
